--- a/outputs/occlusions_out_sheet_clip.xlsx
+++ b/outputs/occlusions_out_sheet_clip.xlsx
@@ -1,73 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ynaho\PycharmProjects\galit_project\psychology_project\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D16B67F-C421-4EC4-A7B5-B7CECDA875C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>distance between regular and top</t>
-  </si>
-  <si>
-    <t>distance between regular and bottom</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,357 +428,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col width="29.5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="32.75" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11.25" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.4140625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>6.9347825050354004</v>
-      </c>
-      <c r="B2">
-        <v>6.0452032089233398</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>distance between regular and top</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>distance between regular and bottom</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7.910618305206299</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.721146583557129</v>
       </c>
       <c r="C2">
         <f>A2-B2</f>
-        <v>0.88957929611206055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>7.1234745979309082</v>
-      </c>
-      <c r="B3">
-        <v>5.9207034111022949</v>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8.522232055664062</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.772104263305664</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C27" si="0">A3-B3</f>
-        <v>1.2027711868286133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7.455632209777832</v>
-      </c>
-      <c r="B4">
-        <v>6.8454594612121582</v>
+        <f>A3-B3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.435256481170654</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.507893562316895</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.61017274856567383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8.2390327453613281</v>
-      </c>
-      <c r="B5">
-        <v>7.3411870002746582</v>
+        <f>A4-B4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7.505151271820068</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.406980514526367</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.89784574508666992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7.2174949645996094</v>
-      </c>
-      <c r="B6">
-        <v>6.5339851379394531</v>
+        <f>A5-B5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.55210018157959</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.300142288208008</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.68350982666015625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7.7997512817382813</v>
-      </c>
-      <c r="B7">
-        <v>7.7341480255126953</v>
+        <f>A6-B6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.803139686584473</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.610939979553223</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>6.5603256225585938E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7.7560582160949707</v>
-      </c>
-      <c r="B8">
-        <v>6.7517180442810059</v>
+        <f>A7-B7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.097159385681152</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.159444332122803</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.0043401718139648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8.0623855590820313</v>
-      </c>
-      <c r="B9">
-        <v>6.2926287651062012</v>
+        <f>A8-B8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7.427755832672119</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.913804531097412</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.7697567939758301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7.075955867767334</v>
-      </c>
-      <c r="B10">
-        <v>7.0345373153686523</v>
+        <f>A9-B9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7.686631679534912</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.464422225952148</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>4.1418552398681641E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7.4310784339904794</v>
-      </c>
-      <c r="B11">
-        <v>5.8524942398071289</v>
+        <f>A10-B10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6.370433330535889</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.543984889984131</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1.5785841941833505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>8.2683801651000977</v>
-      </c>
-      <c r="B12">
-        <v>8.1072378158569336</v>
+        <f>A11-B11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8.488936424255371</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.778404235839844</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.16114234924316406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6.6982073783874512</v>
-      </c>
-      <c r="B13">
-        <v>5.1100878715515137</v>
+        <f>A12-B12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7.762078762054443</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.784384250640869</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1.5881195068359375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7.4694609642028809</v>
-      </c>
-      <c r="B14">
-        <v>6.3487215042114258</v>
+        <f>A13-B13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8.357606887817383</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.699889659881592</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1.1207394599914551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>6.7832489013671884</v>
-      </c>
-      <c r="B15">
-        <v>5.5851435661315918</v>
+        <f>A14-B14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5.939504623413086</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.173707962036133</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1.1981053352355966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>7.6932663917541504</v>
-      </c>
-      <c r="B16">
-        <v>7.2164115905761719</v>
+        <f>A15-B15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8.230295181274414</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.377493858337402</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.47685480117797852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7.7519888877868652</v>
-      </c>
-      <c r="B17">
-        <v>7.4198675155639648</v>
+        <f>A16-B16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6.07741641998291</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7.338940620422363</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.33212137222290039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>7.3126339912414551</v>
-      </c>
-      <c r="B18">
-        <v>6.6416277885437012</v>
+        <f>A17-B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9.085895538330078</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.284133911132812</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.67100620269775391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7.6156125068664551</v>
-      </c>
-      <c r="B19">
-        <v>7.017913818359375</v>
+        <f>A18-B18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.071803569793701</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7.632981777191162</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.59769868850708008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>7.6711945533752441</v>
-      </c>
-      <c r="B20">
-        <v>7.1517109870910636</v>
+        <f>A19-B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7.643248081207275</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7.746533870697021</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.51948356628418058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>7.1167135238647461</v>
-      </c>
-      <c r="B21">
-        <v>6.942263126373291</v>
+        <f>A20-B20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6.396773815155029</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.449907779693604</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.17445039749145508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>7.2818741798400879</v>
-      </c>
-      <c r="B22">
-        <v>6.3067960739135742</v>
+        <f>A21-B21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7.293749809265137</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.648944854736328</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.97507810592651367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>8.5084438323974609</v>
-      </c>
-      <c r="B23">
-        <v>7.9920463562011719</v>
+        <f>A22-B22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.403142929077148</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9.474514007568359</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.51639747619628906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>8.7892665863037109</v>
-      </c>
-      <c r="B24">
-        <v>6.5830869674682617</v>
+        <f>A23-B23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.594991683959961</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.765866279602051</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>2.2061796188354492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>6.1898918151855469</v>
-      </c>
-      <c r="B25">
-        <v>5.2626452445983887</v>
+        <f>A24-B24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6.303186893463135</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.219474315643311</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.9272465705871582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>7.2102408409118652</v>
-      </c>
-      <c r="B26">
-        <v>7.0031924247741699</v>
+        <f>A25-B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.62347936630249</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.428394317626953</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.20704841613769531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>8.7093524932861328</v>
-      </c>
-      <c r="B27">
-        <v>7.4316082000732422</v>
+        <f>A26-B26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7.632298946380615</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9.14324951171875</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>1.2777442932128906</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <f>A27-B27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
-        <f t="shared" ref="A29:B29" si="1">AVERAGE(A2:A27)</f>
-        <v>7.5448239766634426</v>
+        <f>AVERAGE(A2:A27)</f>
+        <v/>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
-        <v>6.7104779023390551</v>
+        <f>AVERAGE(B2:B27)</f>
+        <v/>
       </c>
       <c r="C29">
         <f>AVERAGE(C2:C27)</f>
-        <v>0.83434607432438779</v>
+        <v/>
       </c>
     </row>
   </sheetData>
